--- a/docs/Project/PauseModeTables.xlsx
+++ b/docs/Project/PauseModeTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BadBa\Marlin-bugfix-2.1.x\docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01310DE6-ABAA-49BB-8BCD-AF1F3E58340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF5F5FA-2659-44EB-A68C-12844F91EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89E1FA5F-A7AC-490D-AC88-DD30D183BC9C}"/>
+    <workbookView xWindow="3036" yWindow="1704" windowWidth="16596" windowHeight="7680" xr2:uid="{89E1FA5F-A7AC-490D-AC88-DD30D183BC9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
